--- a/sample/Book1.xlsx
+++ b/sample/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kujirahand/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kujirahand/repos/nadesiko3-office/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3737C765-0F77-D44A-82CE-E956A516B5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACFD083-817C-754A-A886-27A455A2BDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="820" windowWidth="28300" windowHeight="17440" xr2:uid="{771A8035-2796-7149-93A0-1AFE22DA9A6B}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,8 +127,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,18 +189,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="38" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -505,23 +526,23 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
